--- a/public/uploads/file_nhap/danh-sach-tinh-nang.xlsx
+++ b/public/uploads/file_nhap/danh-sach-tinh-nang.xlsx
@@ -1,21 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\thuctap_cuoikhoa\public\uploads\file_nhap\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19E0C69E-5D86-42CF-8DD4-6217CEB72932}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Worksheet" sheetId="1" r:id="rId4"/>
+    <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1" forceFullCalc="1"/>
+  <calcPr calcId="181029" forceFullCalc="1"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>id</t>
   </si>
@@ -29,26 +44,52 @@
     <t>sanpham_id</t>
   </si>
   <si>
-    <t>Tính năng 001</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;T&amp;iacute;nh năng 001&lt;/p&gt;</t>
+    <t>ĐẶT KHÁM</t>
+  </si>
+  <si>
+    <t>TƯ VẤN Y TẾ TỪ XA</t>
+  </si>
+  <si>
+    <t>HỘI CHẨN TƯ VẤN KHÁM, CHỮA BỆNH TỪ XA</t>
+  </si>
+  <si>
+    <t>ĐẶT LỊCH HỘI CHẨN</t>
+  </si>
+  <si>
+    <t>BỆNH ÁN ĐIỆN TỬ</t>
+  </si>
+  <si>
+    <t>Quản lý hồ sơ bệnh án theo quy định của BYT</t>
+  </si>
+  <si>
+    <t>KẾT NỐI BÁC SỸ VỚI BÁC SỸ</t>
+  </si>
+  <si>
+    <t>NHÓM TÍNH NĂNG TỔNG QUÁT - CHĂM SÓC SK</t>
+  </si>
+  <si>
+    <t>NHÓM TÍNH NĂNG TƯƠNG TÁC</t>
+  </si>
+  <si>
+    <t>NHÓM TÍNH NĂNG QUẢN TRỊ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="163"/>
     </font>
   </fonts>
   <fills count="2">
@@ -56,28 +97,40 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -367,19 +420,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:D3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8:D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="2.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="54.44140625" customWidth="1"/>
+    <col min="4" max="4" width="10.77734375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -393,46 +449,134 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1">
+        <v>224</v>
+      </c>
+      <c r="D2" s="1">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="D2">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3">
+      <c r="C3" s="1">
+        <v>224</v>
+      </c>
+      <c r="D3" s="1">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="1">
+        <v>224</v>
+      </c>
+      <c r="D4" s="1">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="1">
+        <v>224</v>
+      </c>
+      <c r="D5" s="1">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6">
         <v>5</v>
       </c>
-      <c r="D3">
-        <v>222</v>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="1">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="1">
+        <v>224</v>
+      </c>
+      <c r="D7" s="1">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="1">
+        <v>225</v>
+      </c>
+      <c r="D8" s="1">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="1">
+        <v>225</v>
+      </c>
+      <c r="D9" s="1">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="1">
+        <v>225</v>
+      </c>
+      <c r="D10" s="1">
+        <v>225</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <printOptions gridLines="false" gridLinesSet="true"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
 </worksheet>
 </file>
--- a/public/uploads/file_nhap/danh-sach-tinh-nang.xlsx
+++ b/public/uploads/file_nhap/danh-sach-tinh-nang.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\thuctap_cuoikhoa\public\uploads\file_nhap\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19E0C69E-5D86-42CF-8DD4-6217CEB72932}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8101C6F-BEDD-4331-B21F-15620D109CCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>id</t>
   </si>
@@ -44,34 +44,13 @@
     <t>sanpham_id</t>
   </si>
   <si>
-    <t>ĐẶT KHÁM</t>
-  </si>
-  <si>
-    <t>TƯ VẤN Y TẾ TỪ XA</t>
-  </si>
-  <si>
-    <t>HỘI CHẨN TƯ VẤN KHÁM, CHỮA BỆNH TỪ XA</t>
-  </si>
-  <si>
-    <t>ĐẶT LỊCH HỘI CHẨN</t>
-  </si>
-  <si>
-    <t>BỆNH ÁN ĐIỆN TỬ</t>
-  </si>
-  <si>
-    <t>Quản lý hồ sơ bệnh án theo quy định của BYT</t>
-  </si>
-  <si>
-    <t>KẾT NỐI BÁC SỸ VỚI BÁC SỸ</t>
-  </si>
-  <si>
-    <t>NHÓM TÍNH NĂNG TỔNG QUÁT - CHĂM SÓC SK</t>
-  </si>
-  <si>
-    <t>NHÓM TÍNH NĂNG TƯƠNG TÁC</t>
-  </si>
-  <si>
-    <t>NHÓM TÍNH NĂNG QUẢN TRỊ</t>
+    <t>VỚI DU KHÁCH</t>
+  </si>
+  <si>
+    <t>VỚI DOANH NGHIỆP CUNG CẤP DỊCH VỤ (CÔNG TY DU LỊCH, NHÀ HÀNG, KHÁCH SẠN, NHÀ NGHỈ)</t>
+  </si>
+  <si>
+    <t>VỚI CƠ QUAN NHÀ NƯỚC (UBND TỈNH, SỞ VHTTDL)</t>
   </si>
 </sst>
 </file>
@@ -424,14 +403,14 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8:D10"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="54.44140625" customWidth="1"/>
+    <col min="2" max="2" width="40.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.6640625" customWidth="1"/>
     <col min="4" max="4" width="10.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -457,10 +436,10 @@
         <v>4</v>
       </c>
       <c r="C2" s="1">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="D2" s="1">
-        <v>224</v>
+        <v>227</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -471,10 +450,10 @@
         <v>5</v>
       </c>
       <c r="C3" s="1">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="D3" s="1">
-        <v>224</v>
+        <v>227</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -485,98 +464,39 @@
         <v>6</v>
       </c>
       <c r="C4" s="1">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="D4" s="1">
-        <v>224</v>
+        <v>227</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="1">
-        <v>224</v>
-      </c>
-      <c r="D5" s="1">
-        <v>224</v>
-      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="1">
-        <v>224</v>
-      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="1">
-        <v>224</v>
-      </c>
-      <c r="D7" s="1">
-        <v>224</v>
-      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="1">
-        <v>225</v>
-      </c>
-      <c r="D8" s="1">
-        <v>225</v>
-      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="1">
-        <v>225</v>
-      </c>
-      <c r="D9" s="1">
-        <v>225</v>
-      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="1">
-        <v>225</v>
-      </c>
-      <c r="D10" s="1">
-        <v>225</v>
-      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>